--- a/data/trans_orig/P0801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>620129</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>603744</v>
+        <v>602289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>634607</v>
+        <v>635396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8935423460123392</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8699331209486676</v>
+        <v>0.8678363914185107</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9144032999279779</v>
+        <v>0.9155402151437542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>552</v>
@@ -765,19 +765,19 @@
         <v>545233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>523496</v>
+        <v>524871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>565532</v>
+        <v>565340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7920863556770298</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7605079351828707</v>
+        <v>0.7625050228353013</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8215756710915048</v>
+        <v>0.821295704759858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1159</v>
@@ -786,19 +786,19 @@
         <v>1165363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1134306</v>
+        <v>1138578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1189687</v>
+        <v>1191364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8430220937205737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8205560286745118</v>
+        <v>0.8236461207324866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8606182743268189</v>
+        <v>0.861831455527566</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>53576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41591</v>
+        <v>39531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68303</v>
+        <v>69261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07719710240520403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05992853846565165</v>
+        <v>0.05696011327467115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09841761394022425</v>
+        <v>0.09979818159635905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -836,19 +836,19 @@
         <v>112028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95001</v>
+        <v>93573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132093</v>
+        <v>131471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.162748685065809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1380131521531816</v>
+        <v>0.1359372243380753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1918979334985679</v>
+        <v>0.190993760814386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -857,19 +857,19 @@
         <v>165604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144838</v>
+        <v>142511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>190293</v>
+        <v>188424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1197977169740354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1047754347842351</v>
+        <v>0.103092006855792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1376578051064573</v>
+        <v>0.1363053980199566</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>20307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13478</v>
+        <v>12787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31001</v>
+        <v>30631</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02926055158245679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01941982122153152</v>
+        <v>0.01842476087890609</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04466904645201893</v>
+        <v>0.04413545377038458</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -907,19 +907,19 @@
         <v>31089</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20452</v>
+        <v>20803</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43948</v>
+        <v>43302</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04516495925716119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02971225388627132</v>
+        <v>0.03022215091413503</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06384538478650557</v>
+        <v>0.06290731282949073</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -928,19 +928,19 @@
         <v>51397</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38491</v>
+        <v>38017</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65239</v>
+        <v>67363</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03718018930539093</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02784403543976377</v>
+        <v>0.02750155153596146</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04719351863484744</v>
+        <v>0.04873011798848076</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>853822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>833796</v>
+        <v>833084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>872543</v>
+        <v>871277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8877335571785238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8669115485660591</v>
+        <v>0.8661718069922929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9071982357543434</v>
+        <v>0.9058819844283839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>718</v>
@@ -1053,19 +1053,19 @@
         <v>762324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>733476</v>
+        <v>734592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>787035</v>
+        <v>787728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7872055469074898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7574158528342868</v>
+        <v>0.758568222229226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8127227725487461</v>
+        <v>0.8134382130177497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1509</v>
@@ -1074,19 +1074,19 @@
         <v>1616146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1583070</v>
+        <v>1583120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1645705</v>
+        <v>1647497</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8372978628737531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8201616938815418</v>
+        <v>0.8201871691554263</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.852611841664305</v>
+        <v>0.853540062349409</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>75321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60794</v>
+        <v>60317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92843</v>
+        <v>92940</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07831267408073736</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06320887763068232</v>
+        <v>0.06271263016901762</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09653036824571079</v>
+        <v>0.09663126284336079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>152</v>
@@ -1124,19 +1124,19 @@
         <v>163932</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>141994</v>
+        <v>137836</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>191069</v>
+        <v>187911</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1692827619779704</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1466280008614756</v>
+        <v>0.1423345315468672</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1973055533200436</v>
+        <v>0.1940439238735311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>226</v>
@@ -1145,19 +1145,19 @@
         <v>239253</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>212238</v>
+        <v>212900</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>270955</v>
+        <v>271439</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.123953083472039</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1099566587720519</v>
+        <v>0.1102996315999779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1403771621987452</v>
+        <v>0.1406280687948339</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>32657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22334</v>
+        <v>22770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45520</v>
+        <v>44041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03395376874073885</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02322063766037025</v>
+        <v>0.02367447098995936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04732815514015951</v>
+        <v>0.04579011154861742</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1195,19 +1195,19 @@
         <v>42136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30258</v>
+        <v>30353</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56640</v>
+        <v>57208</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0435116911145398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03124590409535851</v>
+        <v>0.03134344936152016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05848912009757617</v>
+        <v>0.05907511142777166</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1216,19 +1216,19 @@
         <v>74793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58572</v>
+        <v>58207</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93356</v>
+        <v>94438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03874905365420792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03034537482185598</v>
+        <v>0.03015606067561774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04836612563347296</v>
+        <v>0.04892654038935287</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>595653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>576655</v>
+        <v>576420</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>611346</v>
+        <v>612256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8778853931902291</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8498858104643303</v>
+        <v>0.8495392731909183</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9010133702647153</v>
+        <v>0.902355170549802</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>528</v>
@@ -1341,19 +1341,19 @@
         <v>516862</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>492220</v>
+        <v>494849</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>538902</v>
+        <v>538429</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7558214249158737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7197868806432314</v>
+        <v>0.7236315933664036</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7880512172547909</v>
+        <v>0.7873603667996431</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1087</v>
@@ -1362,19 +1362,19 @@
         <v>1112515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1081289</v>
+        <v>1084585</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1139073</v>
+        <v>1137580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8166145350871398</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7936943501969883</v>
+        <v>0.7961132785963403</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8361088471747902</v>
+        <v>0.8350131599412173</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>61279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47984</v>
+        <v>46389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78773</v>
+        <v>77430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09031371306129705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07072005572116295</v>
+        <v>0.06836829546621014</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1160978498080471</v>
+        <v>0.1141176986185702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1412,19 +1412,19 @@
         <v>120266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99855</v>
+        <v>101219</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141228</v>
+        <v>140913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1758683344190198</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1460204485619835</v>
+        <v>0.1480148760139838</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2065215634258373</v>
+        <v>0.2060610666629591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -1433,19 +1433,19 @@
         <v>181545</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159750</v>
+        <v>158755</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210204</v>
+        <v>207495</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1332584504754571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.117260868056917</v>
+        <v>0.1165304944852675</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1542950292169969</v>
+        <v>0.152306616447841</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>21577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13074</v>
+        <v>13256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32104</v>
+        <v>30992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03180089374847386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01926854757755713</v>
+        <v>0.01953736275207757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04731544458939594</v>
+        <v>0.04567650637099779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -1483,19 +1483,19 @@
         <v>46713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34106</v>
+        <v>34817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60650</v>
+        <v>62040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0683102406651066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04987451088065433</v>
+        <v>0.05091446212461264</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0886900214123144</v>
+        <v>0.09072220660806711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1504,19 +1504,19 @@
         <v>68291</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53295</v>
+        <v>53239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85466</v>
+        <v>85611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0501270144374031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03911996118383411</v>
+        <v>0.03907910470745367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06273421663970698</v>
+        <v>0.06284069104658618</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>841175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>821790</v>
+        <v>822229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>859354</v>
+        <v>858624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8927562337645494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8721826393413865</v>
+        <v>0.8726487706505396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9120508352544358</v>
+        <v>0.9112752591536744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>801</v>
@@ -1629,19 +1629,19 @@
         <v>830762</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>803254</v>
+        <v>802535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>856405</v>
+        <v>855385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.799877469453912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7733915425506001</v>
+        <v>0.7726998882722026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8245665020709875</v>
+        <v>0.8235846401956527</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1682</v>
@@ -1650,19 +1650,19 @@
         <v>1671937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1637312</v>
+        <v>1638332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1701510</v>
+        <v>1705724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8440570522111627</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8265769252911803</v>
+        <v>0.8270921166648736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8589865079894157</v>
+        <v>0.8611138409429895</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>74026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57049</v>
+        <v>60032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88955</v>
+        <v>90513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0785649640364109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06054700235192944</v>
+        <v>0.06371343873918174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09440965219355682</v>
+        <v>0.09606286987066734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -1700,19 +1700,19 @@
         <v>144745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122656</v>
+        <v>123739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167751</v>
+        <v>168418</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1393641548912793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1180962968180788</v>
+        <v>0.1191387716644559</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1615148886527182</v>
+        <v>0.1621571188883982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>219</v>
@@ -1721,19 +1721,19 @@
         <v>218771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191494</v>
+        <v>191829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246788</v>
+        <v>250094</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1104438424400628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09667337553014098</v>
+        <v>0.09684258267774201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1245880296123142</v>
+        <v>0.1262571549732927</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>27022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18460</v>
+        <v>18829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37930</v>
+        <v>38491</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02867880219903966</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01959151928510814</v>
+        <v>0.01998308733261643</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04025589758928284</v>
+        <v>0.04085132848205091</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -1771,19 +1771,19 @@
         <v>63104</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48372</v>
+        <v>48227</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78542</v>
+        <v>79089</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06075837565480859</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04657381655079099</v>
+        <v>0.04643366027041505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07562185751804389</v>
+        <v>0.07614864703456253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>90</v>
@@ -1792,19 +1792,19 @@
         <v>90126</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>74341</v>
+        <v>74511</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>111092</v>
+        <v>112705</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04549910534877455</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03753010163589797</v>
+        <v>0.03761597858169616</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05608324986017183</v>
+        <v>0.05689784671141126</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2910779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2874722</v>
+        <v>2874806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2945215</v>
+        <v>2944301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8883689154948771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8773644324784667</v>
+        <v>0.8773898927355674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8988786903449318</v>
+        <v>0.8985998644568961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2599</v>
@@ -1917,19 +1917,19 @@
         <v>2655182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2606762</v>
+        <v>2601501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2702427</v>
+        <v>2694574</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7857434150350527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7714147014534226</v>
+        <v>0.7698577426417625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7997246561623249</v>
+        <v>0.7974007060451586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5437</v>
@@ -1938,19 +1938,19 @@
         <v>5565962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5504742</v>
+        <v>5505489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5625054</v>
+        <v>5622299</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.836264749448382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8270667490912892</v>
+        <v>0.8271789359680009</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8451431960327884</v>
+        <v>0.8447292232217345</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>264201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>233278</v>
+        <v>234654</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>296076</v>
+        <v>297168</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08063411624040026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07119635473172016</v>
+        <v>0.07161639177083202</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09036224986122021</v>
+        <v>0.0906954717991971</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>524</v>
@@ -1988,19 +1988,19 @@
         <v>540972</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>500331</v>
+        <v>503448</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>584882</v>
+        <v>586365</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1600888393457106</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1480620625993608</v>
+        <v>0.1489845420807673</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1730830014556906</v>
+        <v>0.1735219103565266</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>796</v>
@@ -2009,19 +2009,19 @@
         <v>805173</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>753546</v>
+        <v>754921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>859169</v>
+        <v>858012</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1209742078093381</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1132174502968542</v>
+        <v>0.1134239903447484</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1290868388467217</v>
+        <v>0.1289130058156721</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>101563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84898</v>
+        <v>84817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123432</v>
+        <v>122123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03099696826472264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02591098870819802</v>
+        <v>0.02588606590268139</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03767141782360228</v>
+        <v>0.03727192344294759</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -2059,19 +2059,19 @@
         <v>183043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157766</v>
+        <v>158503</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211016</v>
+        <v>211904</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05416774561923661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04668756143846371</v>
+        <v>0.04690552047702047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06244559834458655</v>
+        <v>0.06270844801077681</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>278</v>
@@ -2080,19 +2080,19 @@
         <v>284606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>252232</v>
+        <v>254625</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>318279</v>
+        <v>316794</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04276104274227994</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0378968361067046</v>
+        <v>0.03825644571088829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04782020588411287</v>
+        <v>0.04759713991341154</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>595341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>573964</v>
+        <v>572471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>613951</v>
+        <v>615956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8462931098939596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.815905696041794</v>
+        <v>0.8137829921496834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8727481931856655</v>
+        <v>0.8755973603327586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>472</v>
@@ -2445,19 +2445,19 @@
         <v>505343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>479663</v>
+        <v>481585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>526792</v>
+        <v>528637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7249734558934697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6881329260006842</v>
+        <v>0.6908898734305956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7557450033587523</v>
+        <v>0.758392089263853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1045</v>
@@ -2466,19 +2466,19 @@
         <v>1100684</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1068436</v>
+        <v>1069683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1131929</v>
+        <v>1131199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7859113042503131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7628860991705396</v>
+        <v>0.763776269888146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8082207690553072</v>
+        <v>0.807699914900686</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>69869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56053</v>
+        <v>53963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88735</v>
+        <v>90683</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09932081172694437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07968047824676459</v>
+        <v>0.07670955504460489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1261394376779429</v>
+        <v>0.1289082588119159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -2516,19 +2516,19 @@
         <v>126198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107449</v>
+        <v>104703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149690</v>
+        <v>145865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1810452397464582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1541478113410451</v>
+        <v>0.1502091415344041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2147475284279206</v>
+        <v>0.2092599705943812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>182</v>
@@ -2537,19 +2537,19 @@
         <v>196067</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170195</v>
+        <v>172692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223282</v>
+        <v>225481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1399957425093264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1215224940972893</v>
+        <v>0.1233054758045102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1594277823165908</v>
+        <v>0.1609981759022175</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>38259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28440</v>
+        <v>27595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53310</v>
+        <v>54092</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05438607837909602</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04042782241010544</v>
+        <v>0.03922743040141352</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07578112516098144</v>
+        <v>0.07689360356033531</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -2587,19 +2587,19 @@
         <v>65510</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51981</v>
+        <v>51643</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83814</v>
+        <v>83267</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09398130436007214</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07457305762216376</v>
+        <v>0.07408740951920359</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1202403484051099</v>
+        <v>0.1194566636281097</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -2608,19 +2608,19 @@
         <v>103769</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84139</v>
+        <v>84257</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124613</v>
+        <v>125117</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07409295324036053</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06007701387848028</v>
+        <v>0.06016101679738843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08897660473969132</v>
+        <v>0.08933645482069873</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>855789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>830975</v>
+        <v>828350</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>880593</v>
+        <v>879662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8407009532140293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8163242511719754</v>
+        <v>0.8137456281660894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8650672773827843</v>
+        <v>0.8641534714169535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>710</v>
@@ -2733,19 +2733,19 @@
         <v>779176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>751663</v>
+        <v>750356</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>810348</v>
+        <v>808784</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7548805961721365</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7282253512795134</v>
+        <v>0.7269591629309134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7850805250070936</v>
+        <v>0.783565926326712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1501</v>
@@ -2754,19 +2754,19 @@
         <v>1634965</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1597451</v>
+        <v>1597092</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1670623</v>
+        <v>1671825</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7974927903827044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7791945090528081</v>
+        <v>0.7790194913017657</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8148860426392638</v>
+        <v>0.8154724229250665</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>106277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87635</v>
+        <v>86980</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127962</v>
+        <v>127125</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1044034133956546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08609035853275324</v>
+        <v>0.08544698068474121</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1257057077417824</v>
+        <v>0.1248834364999539</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -2804,19 +2804,19 @@
         <v>154688</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>131331</v>
+        <v>130979</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>179726</v>
+        <v>177482</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1498645144852925</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.127235854460177</v>
+        <v>0.1268952272654687</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1741224039454109</v>
+        <v>0.171948222488576</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>235</v>
@@ -2825,19 +2825,19 @@
         <v>260965</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>230452</v>
+        <v>231186</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293237</v>
+        <v>293475</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1272918133753184</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1124084439990091</v>
+        <v>0.1127665286405514</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1430333317673357</v>
+        <v>0.1431495339257511</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>55881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42925</v>
+        <v>41143</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73954</v>
+        <v>71627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05489563339031608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04216849683313963</v>
+        <v>0.04041797762830166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07265053932509882</v>
+        <v>0.07036443867614073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -2875,19 +2875,19 @@
         <v>98321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79241</v>
+        <v>80012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118992</v>
+        <v>121684</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09525488934257088</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07677044515061886</v>
+        <v>0.07751738080869447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.115281928929471</v>
+        <v>0.1178901095976583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -2896,19 +2896,19 @@
         <v>154201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131799</v>
+        <v>131570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180391</v>
+        <v>179376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07521539624197718</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06428824106278778</v>
+        <v>0.06417628584825089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08799016095698899</v>
+        <v>0.08749486929126864</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>666262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>643104</v>
+        <v>644958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>685328</v>
+        <v>683682</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8794104893261221</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8488449912253431</v>
+        <v>0.8512915487335575</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9045760441319085</v>
+        <v>0.9024041941001857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>539</v>
@@ -3021,19 +3021,19 @@
         <v>593906</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>568541</v>
+        <v>568887</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>617269</v>
+        <v>617662</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7641871093712916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7315486435536672</v>
+        <v>0.7319942303906209</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7942484304125109</v>
+        <v>0.794754176601745</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1148</v>
@@ -3042,19 +3042,19 @@
         <v>1260168</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1225656</v>
+        <v>1224313</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1290941</v>
+        <v>1291090</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8210649249871061</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7985784637517271</v>
+        <v>0.7977032743837932</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8411149950718457</v>
+        <v>0.8412124539139006</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>58695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44874</v>
+        <v>45271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74708</v>
+        <v>76362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07747204065688995</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05923049689443707</v>
+        <v>0.05975462568057504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09860902336937385</v>
+        <v>0.1007916349870561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -3092,19 +3092,19 @@
         <v>109772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91576</v>
+        <v>90823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131988</v>
+        <v>130575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1412450182778014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1178318966694197</v>
+        <v>0.116862934670702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1698310097382829</v>
+        <v>0.16801275868758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -3113,19 +3113,19 @@
         <v>168467</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143554</v>
+        <v>143301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195894</v>
+        <v>199432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.109764708779715</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09353286768315913</v>
+        <v>0.09336832651298274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1276353875363866</v>
+        <v>0.1299405485183747</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>32667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21594</v>
+        <v>22460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48744</v>
+        <v>48136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04311747001698801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0285029318276335</v>
+        <v>0.0296456665017361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06433758498144572</v>
+        <v>0.06353554303375289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -3163,19 +3163,19 @@
         <v>73496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57673</v>
+        <v>56630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91444</v>
+        <v>91830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0945678723509069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07420892824034916</v>
+        <v>0.07286656790557297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.117662588859924</v>
+        <v>0.1181589199827777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -3184,19 +3184,19 @@
         <v>106162</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>87596</v>
+        <v>86110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130399</v>
+        <v>130396</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06917036623317883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0570730282409591</v>
+        <v>0.05610506719290945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08496200691631497</v>
+        <v>0.08496001301233663</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>807999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>784799</v>
+        <v>783654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>831039</v>
+        <v>829633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8525538781645058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8280750406089626</v>
+        <v>0.8268674043441313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8768643109538231</v>
+        <v>0.8753813226644471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>747</v>
@@ -3309,19 +3309,19 @@
         <v>778482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>749317</v>
+        <v>748067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>806740</v>
+        <v>806373</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7400716639500384</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7123456990273098</v>
+        <v>0.7111575921076514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7669348635714455</v>
+        <v>0.7665859449367309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1530</v>
@@ -3330,19 +3330,19 @@
         <v>1586481</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1550288</v>
+        <v>1549156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1623503</v>
+        <v>1623980</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7933831614123577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7752833560067698</v>
+        <v>0.7747174939249676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.811897839846965</v>
+        <v>0.8121364015999075</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>99795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79475</v>
+        <v>81730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121826</v>
+        <v>120799</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1052974880865658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08385695999538299</v>
+        <v>0.08623642121401896</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1285435751606705</v>
+        <v>0.1274601241649527</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -3380,19 +3380,19 @@
         <v>189271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164895</v>
+        <v>166964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216171</v>
+        <v>217553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.179932768287668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1567587538262509</v>
+        <v>0.1587255553127734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2055049391596583</v>
+        <v>0.2068191864658749</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>267</v>
@@ -3401,19 +3401,19 @@
         <v>289066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>260114</v>
+        <v>255094</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>320795</v>
+        <v>323303</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1445590109445379</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1300805412941559</v>
+        <v>0.1275701167639714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.160426343537314</v>
+        <v>0.1616803791980907</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>39946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28870</v>
+        <v>27971</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56001</v>
+        <v>55069</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04214863374892847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03046201690811251</v>
+        <v>0.02951351113656027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05908905631793204</v>
+        <v>0.0581054384991469</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -3451,19 +3451,19 @@
         <v>84147</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68018</v>
+        <v>66965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102581</v>
+        <v>104703</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07999556776229355</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06466152301230643</v>
+        <v>0.0636611443509693</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09751936330169218</v>
+        <v>0.09953673348722464</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -3472,19 +3472,19 @@
         <v>124093</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100572</v>
+        <v>104754</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145468</v>
+        <v>150321</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06205782764310444</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05029486552665534</v>
+        <v>0.05238654087444961</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07274685816728155</v>
+        <v>0.07517405551079895</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2925391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2875622</v>
+        <v>2880974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2961907</v>
+        <v>2969553</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8536853451536438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8391617588697323</v>
+        <v>0.8407237243171444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.864341308183491</v>
+        <v>0.8665726521716935</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2468</v>
@@ -3597,19 +3597,19 @@
         <v>2656907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2600204</v>
+        <v>2603222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2706642</v>
+        <v>2711443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7466768334462321</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7307414377319567</v>
+        <v>0.7315897250462442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7606540928696857</v>
+        <v>0.7620032929978496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5224</v>
@@ -3618,19 +3618,19 @@
         <v>5582298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5511497</v>
+        <v>5512638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5650630</v>
+        <v>5648595</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7991735963321085</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7890375531383174</v>
+        <v>0.7892009659761893</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8089561859758347</v>
+        <v>0.8086648335717308</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>334635</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>300515</v>
+        <v>298155</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>372361</v>
+        <v>371854</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09765306863186174</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08769615342306336</v>
+        <v>0.08700726803819678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1086621693484305</v>
+        <v>0.1085141538437821</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>535</v>
@@ -3668,19 +3668,19 @@
         <v>579929</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>533854</v>
+        <v>533667</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>628748</v>
+        <v>623666</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1629787501124609</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1500303723023245</v>
+        <v>0.1499777310556957</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1766984625079499</v>
+        <v>0.1752703141930769</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>839</v>
@@ -3689,19 +3689,19 @@
         <v>914564</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>860899</v>
+        <v>857485</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>973239</v>
+        <v>970630</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1309309554433592</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1232480988225979</v>
+        <v>0.1227593573537259</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.139330939094668</v>
+        <v>0.1389574840275274</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>166753</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139947</v>
+        <v>142523</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198258</v>
+        <v>193927</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0486615862144944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04083911670260252</v>
+        <v>0.0415908763282142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05785562600929285</v>
+        <v>0.05659151130552153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -3739,19 +3739,19 @@
         <v>321473</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289905</v>
+        <v>289126</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>360268</v>
+        <v>359955</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09034441644130692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08147277915992338</v>
+        <v>0.08125378539852207</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1012468537626035</v>
+        <v>0.1011589464040911</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>444</v>
@@ -3760,19 +3760,19 @@
         <v>488226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>443609</v>
+        <v>445023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>529265</v>
+        <v>536552</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06989544822453232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06350803336578636</v>
+        <v>0.06371046314701703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0757707224691089</v>
+        <v>0.07681398712476412</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>570209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>550043</v>
+        <v>548765</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>587470</v>
+        <v>587034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8450038379594476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.815120314383654</v>
+        <v>0.8132265090005808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8705832346128402</v>
+        <v>0.8699384728447221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>498</v>
@@ -4125,19 +4125,19 @@
         <v>492531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>468211</v>
+        <v>467566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>515314</v>
+        <v>513712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7320183805888296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6958730792613093</v>
+        <v>0.6949149699745125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7658802576062316</v>
+        <v>0.7634996305676001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1045</v>
@@ -4146,19 +4146,19 @@
         <v>1062739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1031766</v>
+        <v>1033953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1091861</v>
+        <v>1093289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7885933140420169</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7656103303816417</v>
+        <v>0.7672329312001139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8102031390044027</v>
+        <v>0.8112627251539075</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>71403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55995</v>
+        <v>55446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89893</v>
+        <v>89248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1058133568748958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08298021556907599</v>
+        <v>0.08216654758639153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1332144337085232</v>
+        <v>0.1322580155677537</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>107</v>
@@ -4196,19 +4196,19 @@
         <v>113100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92417</v>
+        <v>95063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132881</v>
+        <v>134842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1680938143669918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1373544083159152</v>
+        <v>0.1412870115413652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1974928968408577</v>
+        <v>0.2004079325802566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -4217,19 +4217,19 @@
         <v>184503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161554</v>
+        <v>160203</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>210174</v>
+        <v>211285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1369082722622988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1198796188195963</v>
+        <v>0.1188767043326107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1559573274135495</v>
+        <v>0.1567817601280038</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>33189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23273</v>
+        <v>24239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44118</v>
+        <v>45834</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04918280516565675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0344893324277694</v>
+        <v>0.03591965195979492</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06537982630362929</v>
+        <v>0.06792283993492633</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -4267,19 +4267,19 @@
         <v>67208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52293</v>
+        <v>52990</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85793</v>
+        <v>86436</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09988780504417856</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07771986487071443</v>
+        <v>0.07875572415521674</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1275089466303997</v>
+        <v>0.1284641084144226</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -4288,19 +4288,19 @@
         <v>100397</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82857</v>
+        <v>82013</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122120</v>
+        <v>121657</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0744984136956842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06148320305940673</v>
+        <v>0.06085675012282925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09061758282405731</v>
+        <v>0.09027388467683216</v>
       </c>
     </row>
     <row r="7">
@@ -4395,16 +4395,16 @@
         <v>847467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>894179</v>
+        <v>891687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.852453906734009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8288748867909613</v>
+        <v>0.828874819862483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8745614910440342</v>
+        <v>0.8721240337424243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>767</v>
@@ -4413,19 +4413,19 @@
         <v>798336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>768719</v>
+        <v>767734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>828487</v>
+        <v>824955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7654869211371089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7370887633871223</v>
+        <v>0.7361437254099558</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7943972988528069</v>
+        <v>0.79101049120492</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1568</v>
@@ -4434,19 +4434,19 @@
         <v>1669912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1634089</v>
+        <v>1631884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1707519</v>
+        <v>1704535</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8085391882681923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7911948182728337</v>
+        <v>0.7901270530612257</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8267478912664693</v>
+        <v>0.8253032846995604</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>108963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89622</v>
+        <v>91186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130063</v>
+        <v>130734</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1065724010870139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08765583806484301</v>
+        <v>0.08918573752537957</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1272096391155529</v>
+        <v>0.1278658864299927</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>135</v>
@@ -4484,19 +4484,19 @@
         <v>154537</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>132293</v>
+        <v>132040</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>180232</v>
+        <v>181873</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1481777996583896</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1268495745278548</v>
+        <v>0.1266064874140556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1728163642044829</v>
+        <v>0.1743893242947457</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>243</v>
@@ -4505,19 +4505,19 @@
         <v>263499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>231336</v>
+        <v>234202</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>296043</v>
+        <v>294331</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.127581400678983</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1120082452174911</v>
+        <v>0.1133963629926648</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1433382217431891</v>
+        <v>0.1425094212047535</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>41893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30394</v>
+        <v>30166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55027</v>
+        <v>55864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04097369217897713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02972673176764761</v>
+        <v>0.02950434028649454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05381990723113467</v>
+        <v>0.05463801697519389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -4555,19 +4555,19 @@
         <v>90040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70547</v>
+        <v>71873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111731</v>
+        <v>111476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08633527920450146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06764409527643191</v>
+        <v>0.06891564622129701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1071332074207511</v>
+        <v>0.1068888971975183</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -4576,19 +4576,19 @@
         <v>131933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108599</v>
+        <v>108979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155272</v>
+        <v>156195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06387941105282473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05258133994311831</v>
+        <v>0.05276562564945502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07517987359420115</v>
+        <v>0.07562645613250624</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>661929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>641226</v>
+        <v>640780</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>679791</v>
+        <v>679880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8714727083537939</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8442162312829418</v>
+        <v>0.8436283203104972</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8949899909123108</v>
+        <v>0.8951069951045539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>596</v>
@@ -4701,19 +4701,19 @@
         <v>621668</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>594044</v>
+        <v>596739</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>643125</v>
+        <v>642965</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7919231823537755</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.756733355558789</v>
+        <v>0.7601661613311537</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8192565826356331</v>
+        <v>0.8190528147813405</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1199</v>
@@ -4722,19 +4722,19 @@
         <v>1283597</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1252043</v>
+        <v>1250221</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1312026</v>
+        <v>1314671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8310423482998471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8106131844404698</v>
+        <v>0.8094335505511919</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8494479562350953</v>
+        <v>0.8511604788413315</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>68469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53687</v>
+        <v>52177</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86197</v>
+        <v>85117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09014457130975893</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07068280827644098</v>
+        <v>0.06869427223235863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1134842352279808</v>
+        <v>0.1120622923551476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -4772,19 +4772,19 @@
         <v>101277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83434</v>
+        <v>82628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123202</v>
+        <v>121664</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1290135552185957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1062844370160949</v>
+        <v>0.1052568857887879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1569431236476125</v>
+        <v>0.154984330899246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -4793,19 +4793,19 @@
         <v>169747</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147927</v>
+        <v>144374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197375</v>
+        <v>199256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1098993969307811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09577266818732987</v>
+        <v>0.09347266700351968</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1277866966187505</v>
+        <v>0.129004816285725</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>29154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19798</v>
+        <v>19858</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41635</v>
+        <v>42192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03838272033644725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02606498930318943</v>
+        <v>0.02614441121598728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05481461444458414</v>
+        <v>0.0555479372560878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -4843,19 +4843,19 @@
         <v>62066</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47525</v>
+        <v>46683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78630</v>
+        <v>78638</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07906326242762884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06054048279657264</v>
+        <v>0.05946829002948094</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1001642442272905</v>
+        <v>0.1001744229957224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -4864,19 +4864,19 @@
         <v>91219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74587</v>
+        <v>74863</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113611</v>
+        <v>113017</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05905825476937181</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04828994634253342</v>
+        <v>0.0484687217582339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07355513875535288</v>
+        <v>0.07317076699067644</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>820210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>798413</v>
+        <v>796606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>838507</v>
+        <v>837511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8748284699799296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8515791952337485</v>
+        <v>0.8496519164891558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8943435965570464</v>
+        <v>0.8932810909694169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>780</v>
@@ -4989,19 +4989,19 @@
         <v>829996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>800325</v>
+        <v>802683</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>856276</v>
+        <v>858478</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7951838439122593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7667574912780003</v>
+        <v>0.7690162667300073</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8203618438504878</v>
+        <v>0.8224712980599093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1592</v>
@@ -5010,19 +5010,19 @@
         <v>1650207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1613424</v>
+        <v>1614973</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1683550</v>
+        <v>1683026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8328714424508998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.814307114879268</v>
+        <v>0.8150889726522694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.849700159334799</v>
+        <v>0.849435544831235</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>75316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60480</v>
+        <v>60731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94257</v>
+        <v>93923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08033145008914917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06450781499110579</v>
+        <v>0.06477482367078163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1005338783391335</v>
+        <v>0.1001777926600366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -5060,19 +5060,19 @@
         <v>133712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108050</v>
+        <v>112244</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156703</v>
+        <v>160083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1281038295123951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1035180739545419</v>
+        <v>0.1075361826826966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1501306362457964</v>
+        <v>0.1533682151579146</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -5081,19 +5081,19 @@
         <v>209028</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>183467</v>
+        <v>182781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240797</v>
+        <v>238005</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1054980826361505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09259698379991053</v>
+        <v>0.09225113214725415</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.121531988086584</v>
+        <v>0.1201226954508747</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>42041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29657</v>
+        <v>30581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56536</v>
+        <v>56847</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04484007993092122</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0316314400906626</v>
+        <v>0.03261775312270523</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06030071439819852</v>
+        <v>0.06063266363794458</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -5131,19 +5131,19 @@
         <v>80071</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63273</v>
+        <v>62867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101682</v>
+        <v>101804</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0767123265753457</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06061934052255161</v>
+        <v>0.06023011032192711</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09741688334622683</v>
+        <v>0.09753375123070743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>106</v>
@@ -5152,19 +5152,19 @@
         <v>122111</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101699</v>
+        <v>98765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>146796</v>
+        <v>146723</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06163047491294964</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05132805705032113</v>
+        <v>0.04984726907927085</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07408896039117015</v>
+        <v>0.07405194864954757</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2923923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2881449</v>
+        <v>2882279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2960260</v>
+        <v>2964968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8614088224474096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8488957117821931</v>
+        <v>0.8491401314221548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8721139316969239</v>
+        <v>0.8735009014708032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2641</v>
@@ -5277,19 +5277,19 @@
         <v>2742531</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2690789</v>
+        <v>2688068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2789633</v>
+        <v>2796283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7737336398953086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7591359368620306</v>
+        <v>0.7583683574289157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.787022255908826</v>
+        <v>0.7888983675666138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5404</v>
@@ -5298,19 +5298,19 @@
         <v>5666454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5595993</v>
+        <v>5603454</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5736385</v>
+        <v>5735959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8166223707340134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8064677812794516</v>
+        <v>0.8075429938781596</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8267004710901559</v>
+        <v>0.826638991550334</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>324151</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>292112</v>
+        <v>292444</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>361475</v>
+        <v>358853</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09549733647288013</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08605840104205169</v>
+        <v>0.08615605279553136</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1064931537803179</v>
+        <v>0.1057206718693499</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>444</v>
@@ -5348,19 +5348,19 @@
         <v>502626</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>462711</v>
+        <v>461018</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>549005</v>
+        <v>547674</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.141802741936243</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1305416902830919</v>
+        <v>0.1300642994868698</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1548874124135569</v>
+        <v>0.1545120308350406</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>763</v>
@@ -5369,19 +5369,19 @@
         <v>826777</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>769895</v>
+        <v>770709</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>887151</v>
+        <v>878519</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1191511772233313</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1109536514264551</v>
+        <v>0.1110708648108429</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1278520132473278</v>
+        <v>0.126607893727523</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>146276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124405</v>
+        <v>123680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169781</v>
+        <v>169828</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04309384107971034</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03665063259676628</v>
+        <v>0.03643694202985968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05001882619923256</v>
+        <v>0.05003257262477606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>253</v>
@@ -5419,19 +5419,19 @@
         <v>299385</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264394</v>
+        <v>264103</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337303</v>
+        <v>339180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08446361816844832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07459193099603544</v>
+        <v>0.07450982181971946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09516124163478687</v>
+        <v>0.09569080527141885</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>402</v>
@@ -5440,19 +5440,19 @@
         <v>445660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>405465</v>
+        <v>406723</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>488172</v>
+        <v>486356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06422645204265523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05843369448740129</v>
+        <v>0.05861491883040373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07035308773017297</v>
+        <v>0.07009130105702302</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>576009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>555362</v>
+        <v>554359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>595511</v>
+        <v>594799</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8339375299106643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.804044712114756</v>
+        <v>0.802593458708066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8621723861454986</v>
+        <v>0.8611412003549416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>894</v>
@@ -5805,19 +5805,19 @@
         <v>568951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>552363</v>
+        <v>551907</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>585473</v>
+        <v>586108</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7749475669008211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7523533236170561</v>
+        <v>0.7517325921141377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7974515252729532</v>
+        <v>0.7983170631113817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1483</v>
@@ -5826,19 +5826,19 @@
         <v>1144959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1119588</v>
+        <v>1118992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1170204</v>
+        <v>1168308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8035427212752553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7857371066863683</v>
+        <v>0.7853185148297849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8212596695309048</v>
+        <v>0.8199293347868181</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>69752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55883</v>
+        <v>54640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86243</v>
+        <v>85297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1009865480085288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08090730910686206</v>
+        <v>0.07910671329871811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1248612202674472</v>
+        <v>0.1234911436848626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -5876,19 +5876,19 @@
         <v>97802</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85380</v>
+        <v>85452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112719</v>
+        <v>112456</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1332129082226134</v>
+        <v>0.1332129082226133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1162925084629105</v>
+        <v>0.1163909578504621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1535303581049432</v>
+        <v>0.1531725542898393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>291</v>
@@ -5897,19 +5897,19 @@
         <v>167555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147595</v>
+        <v>149368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189165</v>
+        <v>189314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1175913058646986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1035833132818939</v>
+        <v>0.1048278465061129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.132757960773446</v>
+        <v>0.1328624328043514</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>44949</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33038</v>
+        <v>34218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58127</v>
+        <v>60012</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06507592208080692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04783186422115215</v>
+        <v>0.04953981820925194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08415605018255938</v>
+        <v>0.08688405244752467</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -5947,19 +5947,19 @@
         <v>67427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57151</v>
+        <v>57076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>79301</v>
+        <v>78302</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09183952487656546</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07784390531780232</v>
+        <v>0.07774061547097341</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1080128345922767</v>
+        <v>0.1066517041350441</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>197</v>
@@ -5968,19 +5968,19 @@
         <v>112375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97301</v>
+        <v>96315</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131679</v>
+        <v>131572</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07886597286004614</v>
+        <v>0.07886597286004615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06828662378726352</v>
+        <v>0.06759486981418042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09241360824995677</v>
+        <v>0.0923385506978133</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>931231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909955</v>
+        <v>907822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950271</v>
+        <v>950677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8878019768518755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8675182757365451</v>
+        <v>0.865485219007667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9059544956543786</v>
+        <v>0.9063416069883685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1123</v>
@@ -6093,19 +6093,19 @@
         <v>840155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>818629</v>
+        <v>819711</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>862469</v>
+        <v>859952</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7845775920227739</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7644752956990224</v>
+        <v>0.7654856028496366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8054150755184386</v>
+        <v>0.8030648775947314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1957</v>
@@ -6114,19 +6114,19 @@
         <v>1771386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1742418</v>
+        <v>1737853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1802988</v>
+        <v>1799228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8356560505873158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8219902842294109</v>
+        <v>0.8198367579376343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8505642372552885</v>
+        <v>0.8487907098562147</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>80647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63413</v>
+        <v>64342</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101790</v>
+        <v>103258</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07688577107481816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06045529070100638</v>
+        <v>0.0613411766515178</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09704255741788481</v>
+        <v>0.09844204295593134</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>258</v>
@@ -6164,19 +6164,19 @@
         <v>153574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>134652</v>
+        <v>136269</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>173326</v>
+        <v>171886</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1434145714951503</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1257443015694579</v>
+        <v>0.12725411316417</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1618602638700986</v>
+        <v>0.1605151134027752</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>340</v>
@@ -6185,19 +6185,19 @@
         <v>234221</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>210746</v>
+        <v>207561</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>261636</v>
+        <v>259972</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1104941662900753</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09941990520280257</v>
+        <v>0.09791730836557476</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1234274340373675</v>
+        <v>0.1226424436528507</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>37040</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27128</v>
+        <v>27626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49122</v>
+        <v>50385</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03531225207330645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02586294291897301</v>
+        <v>0.02633735782617538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04683116087634301</v>
+        <v>0.0480353368184006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -6235,19 +6235,19 @@
         <v>77109</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63964</v>
+        <v>64897</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89814</v>
+        <v>90248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07200783648207587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05973253267435052</v>
+        <v>0.06060419445441905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0838727744302101</v>
+        <v>0.08427751148608363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -6256,19 +6256,19 @@
         <v>114148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98779</v>
+        <v>98061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132395</v>
+        <v>133951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05384978312260889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04659912080669915</v>
+        <v>0.04626075052752176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0624575786998341</v>
+        <v>0.06319161463949979</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>666270</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>643351</v>
+        <v>643134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>688357</v>
+        <v>686809</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8296505484446747</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8011112385105714</v>
+        <v>0.8008412843361459</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8571534181881256</v>
+        <v>0.8552257538446288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>784</v>
@@ -6381,19 +6381,19 @@
         <v>640854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>620381</v>
+        <v>621241</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>659077</v>
+        <v>659613</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7889779757958693</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7637725976138195</v>
+        <v>0.7648313303942799</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8114126930572427</v>
+        <v>0.8120725097027028</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1322</v>
@@ -6402,19 +6402,19 @@
         <v>1307124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1274947</v>
+        <v>1274441</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1334007</v>
+        <v>1331596</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8091986184591241</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7892783090863106</v>
+        <v>0.7889651105348023</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8258410034453201</v>
+        <v>0.8243484486755162</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>105248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84945</v>
+        <v>87793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125866</v>
+        <v>125791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1310562210128835</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1057750471104306</v>
+        <v>0.1093209224442775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1567307637606737</v>
+        <v>0.1566372699608937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -6452,19 +6452,19 @@
         <v>115720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101011</v>
+        <v>100202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134384</v>
+        <v>131308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1424672451264664</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1243584067604029</v>
+        <v>0.1233621870499924</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1654451476944646</v>
+        <v>0.1616581181592286</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>288</v>
@@ -6473,19 +6473,19 @@
         <v>220968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197684</v>
+        <v>197914</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246843</v>
+        <v>247854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1367941778480601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1223795055016955</v>
+        <v>0.122521978988947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1528123328907931</v>
+        <v>0.153438510367454</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>31555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21366</v>
+        <v>21332</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45728</v>
+        <v>43848</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03929323054244185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02660490191548725</v>
+        <v>0.02656235339468357</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05694151764108745</v>
+        <v>0.05460086428672079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -6523,19 +6523,19 @@
         <v>55684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43465</v>
+        <v>44034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69340</v>
+        <v>69574</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06855477907766425</v>
+        <v>0.06855477907766426</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05351176963025218</v>
+        <v>0.05421178445883666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08536729223156093</v>
+        <v>0.0856554679262662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -6544,19 +6544,19 @@
         <v>87240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71169</v>
+        <v>70279</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104330</v>
+        <v>104769</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05400720369281584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04405850722561688</v>
+        <v>0.04350722610879082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06458724779358904</v>
+        <v>0.06485882147166444</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>848763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>826636</v>
+        <v>824665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>868052</v>
+        <v>868229</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.857283158534023</v>
+        <v>0.8572831585340229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8349337637363012</v>
+        <v>0.8329423904512329</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.876765431237881</v>
+        <v>0.8769444850183833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1128</v>
@@ -6669,19 +6669,19 @@
         <v>854108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>829840</v>
+        <v>829743</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>877914</v>
+        <v>877927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.763249539099487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7415635698282663</v>
+        <v>0.7414769583069933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7845233349589223</v>
+        <v>0.7845350916399387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1952</v>
@@ -6690,19 +6690,19 @@
         <v>1702872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1666570</v>
+        <v>1669950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1731963</v>
+        <v>1733915</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8073911043057179</v>
+        <v>0.8073911043057178</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7901793316780915</v>
+        <v>0.7917819106166845</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8211842268515448</v>
+        <v>0.8221097788557912</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>99679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83453</v>
+        <v>82766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119891</v>
+        <v>120673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1006795243154825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0842904278520242</v>
+        <v>0.08359700181942099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1210939352368972</v>
+        <v>0.1218840511398729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>278</v>
@@ -6740,19 +6740,19 @@
         <v>165652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>146894</v>
+        <v>147475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185599</v>
+        <v>184872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1480301678489712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1312680892821488</v>
+        <v>0.1317869033199216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1658551896919038</v>
+        <v>0.1652059917895273</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -6761,19 +6761,19 @@
         <v>265331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>238944</v>
+        <v>240620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>292113</v>
+        <v>294185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1258026758981207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1132917855388852</v>
+        <v>0.1140863308364429</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1385008254936647</v>
+        <v>0.13948357380266</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>41620</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32250</v>
+        <v>32200</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53377</v>
+        <v>54978</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04203731715049464</v>
+        <v>0.04203731715049462</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03257409109212844</v>
+        <v>0.03252293004371704</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0539131805196867</v>
+        <v>0.05553033859169585</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>156</v>
@@ -6811,19 +6811,19 @@
         <v>99282</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84343</v>
+        <v>84625</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114608</v>
+        <v>115346</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08872029305154194</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0753712200024392</v>
+        <v>0.07562317227233964</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1024162367545167</v>
+        <v>0.1030761695837906</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>213</v>
@@ -6832,19 +6832,19 @@
         <v>140901</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122753</v>
+        <v>120738</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>162471</v>
+        <v>160247</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06680621979616153</v>
+        <v>0.06680621979616151</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05820127698517338</v>
+        <v>0.05724630683251881</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07703329118625413</v>
+        <v>0.07597877209326986</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3022273</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2977282</v>
+        <v>2977286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3061179</v>
+        <v>3060311</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.855498622829217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8427633504586944</v>
+        <v>0.8427643359194065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8665115739601107</v>
+        <v>0.8662657401616076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3929</v>
@@ -6957,19 +6957,19 @@
         <v>2904068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2865473</v>
+        <v>2867739</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2946274</v>
+        <v>2948314</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7772540999245229</v>
+        <v>0.7772540999245228</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7669243348587902</v>
+        <v>0.7675308027164239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7885500595277626</v>
+        <v>0.7890960865210666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6714</v>
@@ -6978,19 +6978,19 @@
         <v>5926342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5864817</v>
+        <v>5868317</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5983778</v>
+        <v>5986585</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8152808209782832</v>
+        <v>0.8152808209782834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8068169465756951</v>
+        <v>0.8072984025194573</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8231822960447619</v>
+        <v>0.8235684228344871</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>355326</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>318813</v>
+        <v>320776</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>393137</v>
+        <v>392845</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1005801948479711</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09024459556790236</v>
+        <v>0.09080030750952212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1112832276719139</v>
+        <v>0.1112004608866784</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>922</v>
@@ -7028,19 +7028,19 @@
         <v>532748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>501253</v>
+        <v>497138</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>566313</v>
+        <v>567406</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1425864069906987</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1341569339013242</v>
+        <v>0.1330555175360851</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1515697910160821</v>
+        <v>0.1518622429805283</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1322</v>
@@ -7049,19 +7049,19 @@
         <v>888074</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>841034</v>
+        <v>834226</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>942734</v>
+        <v>939665</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1221714507435726</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1157001803200206</v>
+        <v>0.1147635984286264</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1296910224265437</v>
+        <v>0.129268799235011</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>155163</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134443</v>
+        <v>130996</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178882</v>
+        <v>179643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04392118232281208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03805596321064705</v>
+        <v>0.03708032029826021</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05063520173134484</v>
+        <v>0.05085046609771904</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>515</v>
@@ -7099,19 +7099,19 @@
         <v>299501</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>272916</v>
+        <v>274660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>325738</v>
+        <v>324856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08015949308477829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07304409253200336</v>
+        <v>0.07351094589285337</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08718162152560641</v>
+        <v>0.08694547505615617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>706</v>
@@ -7120,19 +7120,19 @@
         <v>454664</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>419530</v>
+        <v>419659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>491703</v>
+        <v>492639</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06254772827814412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05771435936956303</v>
+        <v>0.05773208132932815</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06764314568040411</v>
+        <v>0.0677718458982393</v>
       </c>
     </row>
     <row r="23">
